--- a/docs/Protokolle/Sprint3_Group16/Sprint_Review_Protocol_3.xlsx
+++ b/docs/Protokolle/Sprint3_Group16/Sprint_Review_Protocol_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuetingliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\Protokolle\Sprint3_Group16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B361BA53-37E3-0048-A545-C2F49671217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0C8CC-CEBF-479B-9A9A-C6BD89475CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1080" windowWidth="28800" windowHeight="16280" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-28230" yWindow="1875" windowWidth="11835" windowHeight="9975" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -378,105 +378,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="23"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -535,7 +534,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -641,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -783,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -793,47 +792,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="2"/>
-    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="2"/>
+    <col min="2" max="2" width="32.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" style="2"/>
+    <col min="8" max="8" width="34.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -844,166 +843,166 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11">
+      <c r="B4" s="17"/>
+      <c r="C4" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="14">
+      <c r="B5" s="19"/>
+      <c r="C5" s="22">
         <v>45776</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="15">
+      <c r="B6" s="19"/>
+      <c r="C6" s="23">
         <v>16</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,159 +1027,162 @@
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="11">
         <v>3</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="26">
+      <c r="G16" s="9"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="11">
         <v>6</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="G17" s="9"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="11">
         <v>6</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="6">
         <v>1</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="11">
         <v>2</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="11">
         <v>1.5</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="7">
         <v>-0.5</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
@@ -1197,10 +1199,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
